--- a/data/trans_camb/P1401-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1401-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.202347604312734</v>
+        <v>-1.294643301675114</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2402525238922918</v>
+        <v>-0.2745882292414841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.493817205500214</v>
+        <v>-1.48754820347172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06524622716991911</v>
+        <v>-0.006805509997871358</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.132626721664941</v>
+        <v>-1.073694147733345</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.247101183765604</v>
+        <v>0.3208793721024337</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.381103003946425</v>
+        <v>1.257471912974322</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.790625058564784</v>
+        <v>2.634902211372752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.514923831868878</v>
+        <v>1.418777353895888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.839395050543965</v>
+        <v>2.951505069473304</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9548735013148686</v>
+        <v>0.9788972709739744</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.365344024547704</v>
+        <v>2.426399638822405</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.01420470643487928</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.626252911591153</v>
+        <v>0.6262529115911526</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.01906403529513555</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5232421405024804</v>
+        <v>-0.5534805393184327</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1308777935168373</v>
+        <v>-0.1468937269181593</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4475127568292944</v>
+        <v>-0.4271853667098015</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.009797335024405976</v>
+        <v>-0.0126427473381159</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3805663932709573</v>
+        <v>-0.3705032361918236</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07094825436334785</v>
+        <v>0.09688950423187082</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.150384056626939</v>
+        <v>1.010063760151811</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.171677966220344</v>
+        <v>2.148239408562742</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6873562152319843</v>
+        <v>0.6232307316003701</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.283182185432286</v>
+        <v>1.347833171810754</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4943573304899511</v>
+        <v>0.4936726836411674</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.19914706366486</v>
+        <v>1.264192252096402</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-0.3723605078518745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1272754930063978</v>
+        <v>0.1272754930063975</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.3503337536477755</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4627616175812603</v>
+        <v>0.4627616175812607</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9526898865254405</v>
+        <v>-0.9627985930828211</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08053867621215051</v>
+        <v>0.008390277788741825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.255800108751609</v>
+        <v>-1.259038334514412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6902670029268939</v>
+        <v>-0.7430051829472282</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8265545408069789</v>
+        <v>-0.867006915113857</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1620970584874237</v>
+        <v>-0.08505626494457806</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1983873719907403</v>
+        <v>0.1688149932917472</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.454775103884758</v>
+        <v>1.429814142220607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4438517004537114</v>
+        <v>0.4318772699024974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9219777932808608</v>
+        <v>0.8776132144458839</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1719741449395971</v>
+        <v>0.1664131791321354</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9624190960287071</v>
+        <v>0.9585009582509016</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.2238138805781648</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.07650119008751793</v>
+        <v>0.07650119008751773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2677533802688742</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3536798440799091</v>
+        <v>0.3536798440799094</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7026713577119065</v>
+        <v>-0.7118215205579348</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.006588225793222811</v>
+        <v>-0.03596359773154384</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5907940898308456</v>
+        <v>-0.5627050854809011</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3038900245076261</v>
+        <v>-0.3346369212859884</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.526760975498377</v>
+        <v>-0.5405581573351605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09031616999637841</v>
+        <v>-0.05278868721093195</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3579708942505592</v>
+        <v>0.2912040575404788</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.03965936099896</v>
+        <v>2.076447646411634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3931631542140904</v>
+        <v>0.397877068907272</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8716045647374879</v>
+        <v>0.7899312298142814</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1826528038976847</v>
+        <v>0.1696845386019206</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9351196628727533</v>
+        <v>0.9781648974856264</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8075967815454804</v>
+        <v>-0.775985292747444</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.035250234156913</v>
+        <v>1.066811507723732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7289010105066659</v>
+        <v>0.5699046470260747</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.911020805399807</v>
+        <v>-0.831407827973505</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1504721643804318</v>
+        <v>0.2145290127780189</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5440139431013167</v>
+        <v>0.5178564181004439</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8600703599044974</v>
+        <v>0.8332541765415878</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.482142239566218</v>
+        <v>3.606041381521976</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.398779993258485</v>
+        <v>4.406733097640019</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.537208379576601</v>
+        <v>1.516889713642309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.237882401565024</v>
+        <v>2.250102077559168</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.199977081190467</v>
+        <v>2.194636556439268</v>
       </c>
     </row>
     <row r="19">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>0.4329579602580587</v>
+        <v>0.5188631281450971</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.19103553512234</v>
+        <v>0.02104260603116554</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5678150621549914</v>
+        <v>-0.5314326947768016</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01462107372714674</v>
+        <v>0.05908867964406281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2643301250777496</v>
+        <v>0.1982000985489437</v>
       </c>
     </row>
     <row r="21">
@@ -1059,16 +1059,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>14.30098400430227</v>
+        <v>12.58260940974384</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.539575588271293</v>
+        <v>5.039209132444708</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.320985738712091</v>
+        <v>7.420613524917866</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.531075768866284</v>
+        <v>6.281149871822532</v>
       </c>
     </row>
     <row r="22">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7681584042285787</v>
+        <v>-0.7826190129869894</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3655510511923166</v>
+        <v>0.3831396453800885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6986248564529894</v>
+        <v>-0.7466059750439288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3250102672399668</v>
+        <v>-0.3667823017305301</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5950096093867879</v>
+        <v>-0.5520516428142399</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.165069441742518</v>
+        <v>0.1267157590986522</v>
       </c>
     </row>
     <row r="24">
@@ -1135,22 +1135,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2154357889312999</v>
+        <v>0.2402454348545587</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.564790650337887</v>
+        <v>1.593056069387273</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7304227033017378</v>
+        <v>0.7479680305118768</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8850991641646935</v>
+        <v>0.8667121908664212</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3135010241444934</v>
+        <v>0.342334722583953</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.014687220634752</v>
+        <v>1.008035756576875</v>
       </c>
     </row>
     <row r="25">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5186979386714694</v>
+        <v>-0.5339957126124129</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2366083160031448</v>
+        <v>0.2412352497996904</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.291354611132543</v>
+        <v>-0.3129373560377613</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1372417651884244</v>
+        <v>-0.1528774411200571</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.330156771946406</v>
+        <v>-0.3018463256137551</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08636187415716398</v>
+        <v>0.07055203086129112</v>
       </c>
     </row>
     <row r="27">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2753209076752558</v>
+        <v>0.3262609328968991</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.946647247365706</v>
+        <v>1.790427178808801</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4642695673136211</v>
+        <v>0.4269743859444265</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5554761423440517</v>
+        <v>0.5468018026149345</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2297611738422842</v>
+        <v>0.2470664729273859</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.752340548880202</v>
+        <v>0.7554355809271251</v>
       </c>
     </row>
     <row r="28">
